--- a/results/mp/logistic/corona/confidence/168/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -64,12 +76,12 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -88,70 +100,76 @@
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
@@ -160,28 +178,22 @@
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -664,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3779069767441861</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3220338983050847</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8198433420365535</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1946308724832215</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1361111111111111</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006445375443119562</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E11">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3083</v>
+        <v>334</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,37 +1076,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.004402224281742354</v>
+        <v>0.28</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>4297</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,167 +1126,263 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.004276827371695179</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>115</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="L13">
+        <v>111</v>
+      </c>
+      <c r="M13">
+        <v>111</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1472222222222222</v>
+      </c>
+      <c r="C14">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>307</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.7734375</v>
+      </c>
+      <c r="L14">
+        <v>99</v>
+      </c>
+      <c r="M14">
+        <v>99</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>231</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.76875</v>
+      </c>
+      <c r="L15">
+        <v>123</v>
+      </c>
+      <c r="M15">
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.00643915003219575</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>0.95</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3086</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>0.49</v>
-      </c>
-      <c r="F13">
-        <v>0.51</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>5122</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.78125</v>
-      </c>
-      <c r="L13">
-        <v>125</v>
-      </c>
-      <c r="M13">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L15">
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <v>25</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16">
-        <v>0.75</v>
-      </c>
-      <c r="L16">
-        <v>27</v>
-      </c>
-      <c r="M16">
-        <v>27</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+      <c r="B17">
+        <v>0.005634350106858364</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>0.38</v>
+      </c>
+      <c r="F17">
+        <v>0.62</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5118</v>
+      </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="L17">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L18">
         <v>34</v>
       </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>36</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
       <c r="M18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,41 +1394,41 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19">
-        <v>0.7394366197183099</v>
-      </c>
-      <c r="L19">
-        <v>105</v>
-      </c>
-      <c r="M19">
-        <v>105</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
+    <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
         <v>34</v>
@@ -1338,48 +1446,48 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L21">
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L22">
         <v>19</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>19</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L22">
-        <v>43</v>
-      </c>
-      <c r="M22">
-        <v>43</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1390,99 +1498,99 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>42</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.66</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
         <v>0.6571428571428571</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>23</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>23</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24">
-        <v>0.6441176470588236</v>
-      </c>
-      <c r="L24">
-        <v>219</v>
-      </c>
-      <c r="M24">
-        <v>219</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25">
-        <v>0.64</v>
-      </c>
-      <c r="L25">
-        <v>32</v>
-      </c>
-      <c r="M25">
-        <v>32</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.606694560669456</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L26">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>0.6</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5389830508474577</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L31">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1650,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4831460674157304</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4523809523809524</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.3287671232876712</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1754,137 +1862,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.2948717948717949</v>
+        <v>0.01751459549624687</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>55</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.01833333333333333</v>
+        <v>0.0119496855345912</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1178</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.007132132132132132</v>
+        <v>0.00900562851782364</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N39">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="O39">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2645</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.00481637567730283</v>
+        <v>0.004212637913741223</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N40">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="O40">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4959</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41">
-        <v>0.00408321991055804</v>
-      </c>
-      <c r="L41">
-        <v>21</v>
-      </c>
-      <c r="M41">
-        <v>43</v>
-      </c>
-      <c r="N41">
-        <v>0.49</v>
-      </c>
-      <c r="O41">
-        <v>0.51</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>5122</v>
+        <v>4964</v>
       </c>
     </row>
   </sheetData>
